--- a/biology/Médecine/1598_en_santé_et_médecine/1598_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1598_en_santé_et_médecine/1598_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1598_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1598_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1598 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1598_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1598_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pierre Richer de Belleval (1564-1632) publie le catalogue du jardin botanique de Montpellier créé en 1593 : Onomatologia in Hirti Montispeti.</t>
         </is>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1598_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1598_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,11 +555,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>29 juillet : Henricus Regius (mort en 1679), philosophe et médecin néerlandais[1].
-Samuel Cottereau du Clos (mort en 1685), médecin et chimiste français, médecin de Louis XIV[2].
-Johann Vesling (mort en 1649), chirurgien et anatomiste italien d'origine saxonne dont le Syntagma anatomicum sera « le manuel d'anatomie le plus consulté de la seconde moitié du XVIIe siècle, avec seize éditions en latin, allemand, néerlandais et anglais[3],[4] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>29 juillet : Henricus Regius (mort en 1679), philosophe et médecin néerlandais.
+Samuel Cottereau du Clos (mort en 1685), médecin et chimiste français, médecin de Louis XIV.
+Johann Vesling (mort en 1649), chirurgien et anatomiste italien d'origine saxonne dont le Syntagma anatomicum sera « le manuel d'anatomie le plus consulté de la seconde moitié du XVIIe siècle, avec seize éditions en latin, allemand, néerlandais et anglais, ».</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1598_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1598_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,11 +589,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5 ou 6 novembre : Joachim Camerarius le Jeune (né en 1534), médecin et botaniste allemand[5],[6], auteur d'un Hortus medicus et philosophicus[7] qui sera imprimé pour la première fois en 1588 à Francfort chez Johann Feherabend[8].
-Roch Le Baillif (né en 1540), médecin normand, accusé d'« impiété paracelsine » par la Faculté, médecin ordinaire du roi Henri III[9].
-François Rousset (né en 1535), médecin du roi, auteur en 1581 d'un Nouveau traité de l'hystérotomotokie ou enfantement caesarien, imprimé à Paris chez Denis Duval, important ouvrage sur l'accouchement par césarienne, qui « f[era] grand bruit[10] » et dont Gaspard Bauhin donnera une traduction latine en 1588[11],[12].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>5 ou 6 novembre : Joachim Camerarius le Jeune (né en 1534), médecin et botaniste allemand auteur d'un Hortus medicus et philosophicus qui sera imprimé pour la première fois en 1588 à Francfort chez Johann Feherabend.
+Roch Le Baillif (né en 1540), médecin normand, accusé d'« impiété paracelsine » par la Faculté, médecin ordinaire du roi Henri III.
+François Rousset (né en 1535), médecin du roi, auteur en 1581 d'un Nouveau traité de l'hystérotomotokie ou enfantement caesarien, imprimé à Paris chez Denis Duval, important ouvrage sur l'accouchement par césarienne, qui « f[era] grand bruit » et dont Gaspard Bauhin donnera une traduction latine en 1588,.</t>
         </is>
       </c>
     </row>
